--- a/bulletin/macroeconomics/static/macroeconomics/tables/republican_budget_expenditure_deficit.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/republican_budget_expenditure_deficit.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590DC4DD-382E-4BEA-9162-8541A97B195E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C77FF8-EDB4-4032-A6DB-9947DA694480}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Показатели</t>
   </si>
@@ -112,12 +112,6 @@
     <t>Приобретение финансовых активов</t>
   </si>
   <si>
-    <t>Поступления от продажи</t>
-  </si>
-  <si>
-    <t>финансовых активов государства</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -125,6 +119,9 @@
   </si>
   <si>
     <t>106,8 </t>
+  </si>
+  <si>
+    <t>Поступления от продажи финансовых активов государства</t>
   </si>
 </sst>
 </file>
@@ -160,10 +157,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -444,32 +444,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I27"/>
+      <selection activeCell="A26" sqref="A26:I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="71.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="3">
         <v>2020</v>
       </c>
-      <c r="D1">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3">
         <v>2021</v>
       </c>
-      <c r="F1">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3">
         <v>2022</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -495,7 +502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -509,7 +516,7 @@
         <v>15207178</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -524,7 +531,7 @@
         <v>127.2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -553,7 +560,7 @@
         <v>127.2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -582,7 +589,7 @@
         <v>135.6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -611,7 +618,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -640,7 +647,7 @@
         <v>121.8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -669,7 +676,7 @@
         <v>84.7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -698,7 +705,7 @@
         <v>104.8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -727,7 +734,7 @@
         <v>111.7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -756,7 +763,7 @@
         <v>194.3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -785,7 +792,7 @@
         <v>107.6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -814,7 +821,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -843,7 +850,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -872,7 +879,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -901,7 +908,7 @@
         <v>105.7</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -930,7 +937,7 @@
         <v>308.5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -959,7 +966,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -988,7 +995,7 @@
         <v>190.7</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1005,7 +1012,7 @@
         <v>185434.1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1034,7 +1041,7 @@
         <v>129.30000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1063,7 +1070,7 @@
         <v>191.4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1080,7 +1087,7 @@
         <v>68.3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1109,37 +1116,38 @@
         <v>101.4</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
         <v>30</v>
       </c>
-      <c r="F25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="1">
+      <c r="B26" s="1">
         <v>-2185253</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D26" s="1">
         <v>-2526271</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F26" s="1">
         <v>-2390848</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H26" s="2">
         <v>-1355540.4</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
